--- a/out.xlsx
+++ b/out.xlsx
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,9 +509,76 @@
         <v>2016/01/02</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>○</v>
+        <v>終了</v>
       </c>
       <c r="J2" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>バグ</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>アレなバグを解決</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v>農度太郎</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <v>2016/01/01</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G3" s="4" t="str">
+        <v>農度次郎</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <v>2016/01/02</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <v>終了</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>タスク</v>
+      </c>
+      <c r="C4" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">新規タスク
+新規タスク
+新規タスク
+</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>農度太郎</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <v>2016/01/01</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G4" s="4" t="str">
+        <v>農度次郎</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <v>2016/01/02</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>終了</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <v/>
       </c>
     </row>

--- a/out.xlsx
+++ b/out.xlsx
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>タスク</v>
+        <v>質問</v>
       </c>
       <c r="C2" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">例の件ですが、どうします？
